--- a/WorkBot/main/backend/ordering/OrderFiles/Hill & Markes/Hill & Markes_Triphammer_20250703.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Hill & Markes/Hill & Markes_Triphammer_20250703.xlsx
@@ -451,270 +451,270 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SAB94320</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cont Serving Bowl - 320oz</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FIS508</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bag - Wax (Sandwich)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>126.07</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>126.07</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INLSLP17XD</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Container - Plastic Eclair</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>72.89</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>72.89</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INPSDR0120ITHACABAKERY</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cup - Hot (12oz)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>62.78</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>125.56</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INPSDR0160ITHACABAKERY</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cup - Hot (16oz)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>70.09</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>70.09</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INPSDR0200ITHACABAKERY</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cup - Hot (20oz)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>83.13</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.13</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DIXDUSSF5</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fork - Smart Stock</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>42.71</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>42.71</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SMTSM2PIKN</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Napkin - Dispenser</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>30.94</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>61.88</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JNA26W</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Straws - Wrapped</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>59.31</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>59.31</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>WES183</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Wrap - Film (18")</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>29.75</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>29.75</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
